--- a/dataanalysis/data/predictions/1000/08060953_0954.xlsx
+++ b/dataanalysis/data/predictions/1000/08060953_0954.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="137">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-06</t>
   </si>
   <si>
@@ -422,12 +425,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -785,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH61"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,19 +891,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300009</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1.39</v>
@@ -924,7 +924,7 @@
         <v>27758.68</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -965,8 +965,23 @@
       <c r="W2">
         <v>-0.13</v>
       </c>
+      <c r="X2">
+        <v>-1.44</v>
+      </c>
+      <c r="Y2">
+        <v>11.19</v>
+      </c>
+      <c r="Z2">
+        <v>-1.58</v>
+      </c>
       <c r="AC2" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -974,22 +989,25 @@
       <c r="AG2">
         <v>6.014245510101318</v>
       </c>
-      <c r="AH2" t="s">
-        <v>136</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300069</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0.9</v>
@@ -1007,7 +1025,7 @@
         <v>42427.63</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1048,8 +1066,23 @@
       <c r="W3">
         <v>-0.16</v>
       </c>
+      <c r="X3">
+        <v>-0.76</v>
+      </c>
+      <c r="Y3">
+        <v>27.59</v>
+      </c>
+      <c r="Z3">
+        <v>6.65</v>
+      </c>
       <c r="AC3" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1057,22 +1090,25 @@
       <c r="AG3">
         <v>12.9538688659668</v>
       </c>
-      <c r="AH3" t="s">
-        <v>136</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300158</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-2.97</v>
@@ -1090,7 +1126,7 @@
         <v>36771.14</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>11</v>
@@ -1131,8 +1167,23 @@
       <c r="W4">
         <v>-0.39</v>
       </c>
+      <c r="X4">
+        <v>-2.25</v>
+      </c>
+      <c r="Y4">
+        <v>7.72</v>
+      </c>
+      <c r="Z4">
+        <v>-1.4</v>
+      </c>
       <c r="AC4" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1140,22 +1191,25 @@
       <c r="AG4">
         <v>3.265033960342407</v>
       </c>
-      <c r="AH4" t="s">
-        <v>136</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300199</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-4.28</v>
@@ -1173,7 +1227,7 @@
         <v>163696.47</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1214,8 +1268,23 @@
       <c r="W5">
         <v>-0.14</v>
       </c>
+      <c r="X5">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>24.44</v>
+      </c>
+      <c r="Z5">
+        <v>-0.61</v>
+      </c>
       <c r="AC5" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1223,22 +1292,25 @@
       <c r="AG5">
         <v>9.667481422424316</v>
       </c>
-      <c r="AH5" t="s">
-        <v>136</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300289</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-0.98</v>
@@ -1256,7 +1328,7 @@
         <v>42643.37</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1297,8 +1369,23 @@
       <c r="W6">
         <v>-0.16</v>
       </c>
+      <c r="X6">
+        <v>20.02</v>
+      </c>
+      <c r="Y6">
+        <v>9.77</v>
+      </c>
+      <c r="Z6">
+        <v>7.36</v>
+      </c>
       <c r="AC6" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1306,22 +1393,25 @@
       <c r="AG6">
         <v>6.389299869537354</v>
       </c>
-      <c r="AH6" t="s">
-        <v>136</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300322</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.68</v>
@@ -1339,7 +1429,7 @@
         <v>94497.95</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1380,8 +1470,23 @@
       <c r="W7">
         <v>-0.1</v>
       </c>
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
+        <v>26.1</v>
+      </c>
+      <c r="Z7">
+        <v>21.96</v>
+      </c>
       <c r="AC7" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1389,22 +1494,25 @@
       <c r="AG7">
         <v>9.602785110473633</v>
       </c>
-      <c r="AH7" t="s">
-        <v>136</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300329</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>13.2</v>
@@ -1422,7 +1530,7 @@
         <v>37252.43</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1463,8 +1571,23 @@
       <c r="W8">
         <v>0.62</v>
       </c>
+      <c r="X8">
+        <v>3.7</v>
+      </c>
+      <c r="Y8">
+        <v>13.04</v>
+      </c>
+      <c r="Z8">
+        <v>-4.4</v>
+      </c>
       <c r="AC8" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1472,22 +1595,25 @@
       <c r="AG8">
         <v>2.501499891281128</v>
       </c>
-      <c r="AH8" t="s">
-        <v>136</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300378</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.24</v>
@@ -1505,7 +1631,7 @@
         <v>79178.35000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>9</v>
@@ -1546,8 +1672,23 @@
       <c r="W9">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X9">
+        <v>2.36</v>
+      </c>
+      <c r="Y9">
+        <v>66.93000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>7.95</v>
+      </c>
       <c r="AC9" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1555,22 +1696,25 @@
       <c r="AG9">
         <v>1.515111565589905</v>
       </c>
-      <c r="AH9" t="s">
-        <v>136</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300436</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-3.75</v>
@@ -1588,7 +1732,7 @@
         <v>52562.46</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>25</v>
@@ -1629,8 +1773,23 @@
       <c r="W10">
         <v>-0.39</v>
       </c>
+      <c r="X10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>128.11</v>
+      </c>
+      <c r="Z10">
+        <v>7.73</v>
+      </c>
       <c r="AC10" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1638,22 +1797,25 @@
       <c r="AG10">
         <v>5.012303829193115</v>
       </c>
-      <c r="AH10" t="s">
-        <v>136</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300486</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-11.23</v>
@@ -1671,7 +1833,7 @@
         <v>72200.22</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1712,8 +1874,23 @@
       <c r="W11">
         <v>-0.12</v>
       </c>
+      <c r="X11">
+        <v>2.41</v>
+      </c>
+      <c r="Y11">
+        <v>17.71</v>
+      </c>
+      <c r="Z11">
+        <v>-2.15</v>
+      </c>
       <c r="AC11" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1721,22 +1898,25 @@
       <c r="AG11">
         <v>10.59002017974854</v>
       </c>
-      <c r="AH11" t="s">
-        <v>136</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300500</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.68</v>
@@ -1754,7 +1934,7 @@
         <v>11489.86</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1795,8 +1975,23 @@
       <c r="W12">
         <v>0.19</v>
       </c>
+      <c r="X12">
+        <v>-3.44</v>
+      </c>
+      <c r="Y12">
+        <v>15.76</v>
+      </c>
+      <c r="Z12">
+        <v>1.09</v>
+      </c>
       <c r="AC12" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1804,22 +1999,25 @@
       <c r="AG12">
         <v>6.058583736419678</v>
       </c>
-      <c r="AH12" t="s">
-        <v>136</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300548</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-0.87</v>
@@ -1837,7 +2035,7 @@
         <v>92321.98</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K13">
         <v>17</v>
@@ -1878,8 +2076,23 @@
       <c r="W13">
         <v>-0.26</v>
       </c>
+      <c r="X13">
+        <v>-1.94</v>
+      </c>
+      <c r="Y13">
+        <v>94.72</v>
+      </c>
+      <c r="Z13">
+        <v>0.16</v>
+      </c>
       <c r="AC13" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -1887,22 +2100,25 @@
       <c r="AG13">
         <v>4.224858283996582</v>
       </c>
-      <c r="AH13" t="s">
-        <v>136</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300554</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>4.19</v>
@@ -1920,7 +2136,7 @@
         <v>27023.15</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1961,8 +2177,23 @@
       <c r="W14">
         <v>0.48</v>
       </c>
+      <c r="X14">
+        <v>1.37</v>
+      </c>
+      <c r="Y14">
+        <v>27.39</v>
+      </c>
+      <c r="Z14">
+        <v>1.9</v>
+      </c>
       <c r="AC14" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1970,22 +2201,25 @@
       <c r="AG14">
         <v>5.042864799499512</v>
       </c>
-      <c r="AH14" t="s">
-        <v>136</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300572</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>8.609999999999999</v>
@@ -2003,7 +2237,7 @@
         <v>57226.32</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2044,8 +2278,23 @@
       <c r="W15">
         <v>-0.73</v>
       </c>
+      <c r="X15">
+        <v>-7.34</v>
+      </c>
+      <c r="Y15">
+        <v>33.65</v>
+      </c>
+      <c r="Z15">
+        <v>19.12</v>
+      </c>
       <c r="AC15" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2053,22 +2302,25 @@
       <c r="AG15">
         <v>3.071726560592651</v>
       </c>
-      <c r="AH15" t="s">
-        <v>136</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300581</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -2086,7 +2338,7 @@
         <v>94097.16</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2127,8 +2379,23 @@
       <c r="W16">
         <v>1.11</v>
       </c>
+      <c r="X16">
+        <v>-4.59</v>
+      </c>
+      <c r="Y16">
+        <v>24.52</v>
+      </c>
+      <c r="Z16">
+        <v>5.87</v>
+      </c>
       <c r="AC16" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2136,22 +2403,25 @@
       <c r="AG16">
         <v>3.826858520507812</v>
       </c>
-      <c r="AH16" t="s">
-        <v>136</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300591</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.55</v>
@@ -2169,7 +2439,7 @@
         <v>62623.4</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2210,8 +2480,23 @@
       <c r="W17">
         <v>0.54</v>
       </c>
+      <c r="X17">
+        <v>3.57</v>
+      </c>
+      <c r="Y17">
+        <v>15.69</v>
+      </c>
+      <c r="Z17">
+        <v>19.86</v>
+      </c>
       <c r="AC17" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2219,22 +2504,25 @@
       <c r="AG17">
         <v>2.059553384780884</v>
       </c>
-      <c r="AH17" t="s">
-        <v>137</v>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300600</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>9.57</v>
@@ -2252,7 +2540,7 @@
         <v>47757.33</v>
       </c>
       <c r="J18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2293,8 +2581,23 @@
       <c r="W18">
         <v>0.21</v>
       </c>
+      <c r="X18">
+        <v>8.02</v>
+      </c>
+      <c r="Y18">
+        <v>23.87</v>
+      </c>
+      <c r="Z18">
+        <v>26.3</v>
+      </c>
       <c r="AC18" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2302,22 +2605,25 @@
       <c r="AG18">
         <v>4.499838352203369</v>
       </c>
-      <c r="AH18" t="s">
-        <v>136</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300609</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.19</v>
@@ -2335,7 +2641,7 @@
         <v>14016.23</v>
       </c>
       <c r="J19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2376,8 +2682,23 @@
       <c r="W19">
         <v>-0.15</v>
       </c>
+      <c r="X19">
+        <v>4.66</v>
+      </c>
+      <c r="Y19">
+        <v>48.3</v>
+      </c>
+      <c r="Z19">
+        <v>3.98</v>
+      </c>
       <c r="AC19" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2385,22 +2706,25 @@
       <c r="AG19">
         <v>3.147826910018921</v>
       </c>
-      <c r="AH19" t="s">
-        <v>136</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300644</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>7.91</v>
@@ -2418,7 +2742,7 @@
         <v>48132.58</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2459,8 +2783,23 @@
       <c r="W20">
         <v>-0.03</v>
       </c>
+      <c r="X20">
+        <v>-3.39</v>
+      </c>
+      <c r="Y20">
+        <v>40.65</v>
+      </c>
+      <c r="Z20">
+        <v>4.23</v>
+      </c>
       <c r="AC20" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2468,22 +2807,25 @@
       <c r="AG20">
         <v>1.727540850639343</v>
       </c>
-      <c r="AH20" t="s">
-        <v>136</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300648</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.59</v>
@@ -2501,7 +2843,7 @@
         <v>10547.03</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2542,8 +2884,23 @@
       <c r="W21">
         <v>0.14</v>
       </c>
+      <c r="X21">
+        <v>-0.15</v>
+      </c>
+      <c r="Y21">
+        <v>56.49</v>
+      </c>
+      <c r="Z21">
+        <v>10.27</v>
+      </c>
       <c r="AC21" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2551,22 +2908,25 @@
       <c r="AG21">
         <v>3.403036832809448</v>
       </c>
-      <c r="AH21" t="s">
-        <v>136</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300683</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>2.18</v>
@@ -2584,7 +2944,7 @@
         <v>28898.89</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K22">
         <v>13</v>
@@ -2625,8 +2985,23 @@
       <c r="W22">
         <v>0.22</v>
       </c>
+      <c r="X22">
+        <v>-3.97</v>
+      </c>
+      <c r="Y22">
+        <v>55.27</v>
+      </c>
+      <c r="Z22">
+        <v>0.64</v>
+      </c>
       <c r="AC22" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2634,22 +3009,25 @@
       <c r="AG22">
         <v>2.516736268997192</v>
       </c>
-      <c r="AH22" t="s">
-        <v>136</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300684</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>7.36</v>
@@ -2667,7 +3045,7 @@
         <v>61951.17</v>
       </c>
       <c r="J23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -2708,8 +3086,23 @@
       <c r="W23">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X23">
+        <v>-3.59</v>
+      </c>
+      <c r="Y23">
+        <v>32.19</v>
+      </c>
+      <c r="Z23">
+        <v>-0.5600000000000001</v>
+      </c>
       <c r="AC23" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2717,22 +3110,25 @@
       <c r="AG23">
         <v>1.687168598175049</v>
       </c>
-      <c r="AH23" t="s">
-        <v>136</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300696</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>7.03</v>
@@ -2750,7 +3146,7 @@
         <v>87742.78</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2791,8 +3187,23 @@
       <c r="W24">
         <v>0.38</v>
       </c>
+      <c r="X24">
+        <v>-4.45</v>
+      </c>
+      <c r="Y24">
+        <v>32.43</v>
+      </c>
+      <c r="Z24">
+        <v>-5.81</v>
+      </c>
       <c r="AC24" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2800,22 +3211,25 @@
       <c r="AG24">
         <v>3.7626793384552</v>
       </c>
-      <c r="AH24" t="s">
-        <v>137</v>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300706</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>3.74</v>
@@ -2833,7 +3247,7 @@
         <v>52553.2</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -2874,8 +3288,23 @@
       <c r="W25">
         <v>0.52</v>
       </c>
+      <c r="X25">
+        <v>19.99</v>
+      </c>
+      <c r="Y25">
+        <v>47.66</v>
+      </c>
+      <c r="Z25">
+        <v>19.45</v>
+      </c>
       <c r="AC25" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2883,22 +3312,25 @@
       <c r="AG25">
         <v>2.599230289459229</v>
       </c>
-      <c r="AH25" t="s">
-        <v>136</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300731</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>19.99</v>
@@ -2916,7 +3348,7 @@
         <v>81166.33</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -2957,8 +3389,23 @@
       <c r="W26">
         <v>1.59</v>
       </c>
+      <c r="X26">
+        <v>1.42</v>
+      </c>
+      <c r="Y26">
+        <v>49.77</v>
+      </c>
+      <c r="Z26">
+        <v>5.62</v>
+      </c>
       <c r="AC26" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -2966,22 +3413,25 @@
       <c r="AG26">
         <v>4.543924331665039</v>
       </c>
-      <c r="AH26" t="s">
-        <v>136</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300732</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-7.43</v>
@@ -2999,7 +3449,7 @@
         <v>24358.39</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3040,8 +3490,23 @@
       <c r="W27">
         <v>-0.79</v>
       </c>
+      <c r="X27">
+        <v>1.89</v>
+      </c>
+      <c r="Y27">
+        <v>11.27</v>
+      </c>
+      <c r="Z27">
+        <v>5.13</v>
+      </c>
       <c r="AC27" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3049,22 +3514,25 @@
       <c r="AG27">
         <v>4.12568473815918</v>
       </c>
-      <c r="AH27" t="s">
-        <v>136</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300733</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-1.04</v>
@@ -3082,7 +3550,7 @@
         <v>19590.8</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3123,8 +3591,23 @@
       <c r="W28">
         <v>-0.09</v>
       </c>
+      <c r="X28">
+        <v>7.1</v>
+      </c>
+      <c r="Y28">
+        <v>25.98</v>
+      </c>
+      <c r="Z28">
+        <v>9.67</v>
+      </c>
       <c r="AC28" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3132,22 +3615,25 @@
       <c r="AG28">
         <v>7.654570579528809</v>
       </c>
-      <c r="AH28" t="s">
-        <v>136</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300830</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-0.71</v>
@@ -3165,7 +3651,7 @@
         <v>22111.18</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3206,8 +3692,23 @@
       <c r="W29">
         <v>0</v>
       </c>
+      <c r="X29">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>15.99</v>
+      </c>
+      <c r="Z29">
+        <v>26.2</v>
+      </c>
       <c r="AC29" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3215,22 +3716,25 @@
       <c r="AG29">
         <v>2.934566497802734</v>
       </c>
-      <c r="AH29" t="s">
-        <v>136</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300858</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-2.12</v>
@@ -3248,7 +3752,7 @@
         <v>15947.89</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3289,8 +3793,23 @@
       <c r="W30">
         <v>-0.75</v>
       </c>
+      <c r="X30">
+        <v>-1.33</v>
+      </c>
+      <c r="Y30">
+        <v>19.92</v>
+      </c>
+      <c r="Z30">
+        <v>0.1</v>
+      </c>
       <c r="AC30" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3298,22 +3817,25 @@
       <c r="AG30">
         <v>3.296665668487549</v>
       </c>
-      <c r="AH30" t="s">
-        <v>136</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300875</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>5.54</v>
@@ -3331,7 +3853,7 @@
         <v>29916.6</v>
       </c>
       <c r="J31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3372,8 +3894,23 @@
       <c r="W31">
         <v>-0.13</v>
       </c>
+      <c r="X31">
+        <v>6.3</v>
+      </c>
+      <c r="Y31">
+        <v>69</v>
+      </c>
+      <c r="Z31">
+        <v>35.14</v>
+      </c>
       <c r="AC31" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -3381,22 +3918,25 @@
       <c r="AG31">
         <v>6.071123123168945</v>
       </c>
-      <c r="AH31" t="s">
-        <v>136</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300878</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-2.43</v>
@@ -3414,7 +3954,7 @@
         <v>9262.450000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3455,8 +3995,23 @@
       <c r="W32">
         <v>-0.19</v>
       </c>
+      <c r="X32">
+        <v>1.04</v>
+      </c>
+      <c r="Y32">
+        <v>25.57</v>
+      </c>
+      <c r="Z32">
+        <v>4.24</v>
+      </c>
       <c r="AC32" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3464,22 +4019,25 @@
       <c r="AG32">
         <v>7.780323028564453</v>
       </c>
-      <c r="AH32" t="s">
-        <v>136</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300885</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>3.08</v>
@@ -3497,7 +4055,7 @@
         <v>32217.28</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K33">
         <v>11</v>
@@ -3538,8 +4096,23 @@
       <c r="W33">
         <v>0.57</v>
       </c>
+      <c r="X33">
+        <v>6.76</v>
+      </c>
+      <c r="Y33">
+        <v>31.63</v>
+      </c>
+      <c r="Z33">
+        <v>27.59</v>
+      </c>
       <c r="AC33" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3547,22 +4120,25 @@
       <c r="AG33">
         <v>1.577937602996826</v>
       </c>
-      <c r="AH33" t="s">
-        <v>136</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300916</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>1.12</v>
@@ -3580,7 +4156,7 @@
         <v>25816.17</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3621,8 +4197,23 @@
       <c r="W34">
         <v>0.48</v>
       </c>
+      <c r="X34">
+        <v>-4.63</v>
+      </c>
+      <c r="Y34">
+        <v>42.75</v>
+      </c>
+      <c r="Z34">
+        <v>-1.06</v>
+      </c>
       <c r="AC34" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3630,22 +4221,25 @@
       <c r="AG34">
         <v>6.190039157867432</v>
       </c>
-      <c r="AH34" t="s">
-        <v>137</v>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300965</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.82</v>
@@ -3663,7 +4257,7 @@
         <v>32620.29</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3704,8 +4298,23 @@
       <c r="W35">
         <v>0.73</v>
       </c>
+      <c r="X35">
+        <v>-4.45</v>
+      </c>
+      <c r="Y35">
+        <v>90.84</v>
+      </c>
+      <c r="Z35">
+        <v>6.25</v>
+      </c>
       <c r="AC35" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3713,22 +4322,25 @@
       <c r="AG35">
         <v>0.7701272368431091</v>
       </c>
-      <c r="AH35" t="s">
-        <v>136</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300966</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-3.87</v>
@@ -3746,7 +4358,7 @@
         <v>10834.88</v>
       </c>
       <c r="J36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3787,8 +4399,23 @@
       <c r="W36">
         <v>-0.04</v>
       </c>
+      <c r="X36">
+        <v>-0.52</v>
+      </c>
+      <c r="Y36">
+        <v>25.9</v>
+      </c>
+      <c r="Z36">
+        <v>0.35</v>
+      </c>
       <c r="AC36" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3796,22 +4423,25 @@
       <c r="AG36">
         <v>2.019961357116699</v>
       </c>
-      <c r="AH36" t="s">
-        <v>136</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301052</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-4.13</v>
@@ -3829,7 +4459,7 @@
         <v>18783.26</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3870,8 +4500,23 @@
       <c r="W37">
         <v>-0.23</v>
       </c>
+      <c r="X37">
+        <v>-1.48</v>
+      </c>
+      <c r="Y37">
+        <v>65.3</v>
+      </c>
+      <c r="Z37">
+        <v>2.35</v>
+      </c>
       <c r="AC37" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3879,22 +4524,25 @@
       <c r="AG37">
         <v>7.368880271911621</v>
       </c>
-      <c r="AH37" t="s">
-        <v>136</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301076</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -3912,7 +4560,7 @@
         <v>120849.46</v>
       </c>
       <c r="J38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3953,8 +4601,23 @@
       <c r="W38">
         <v>-0.17</v>
       </c>
+      <c r="X38">
+        <v>10.39</v>
+      </c>
+      <c r="Y38">
+        <v>49.96</v>
+      </c>
+      <c r="Z38">
+        <v>12.07</v>
+      </c>
       <c r="AC38" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -3962,22 +4625,25 @@
       <c r="AG38">
         <v>17.33610534667969</v>
       </c>
-      <c r="AH38" t="s">
-        <v>136</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301095</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>2.09</v>
@@ -3995,7 +4661,7 @@
         <v>32553.91</v>
       </c>
       <c r="J39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -4036,8 +4702,23 @@
       <c r="W39">
         <v>0.09</v>
       </c>
+      <c r="X39">
+        <v>3.47</v>
+      </c>
+      <c r="Y39">
+        <v>78.5</v>
+      </c>
+      <c r="Z39">
+        <v>12.95</v>
+      </c>
       <c r="AC39" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4045,22 +4726,25 @@
       <c r="AG39">
         <v>1.635397911071777</v>
       </c>
-      <c r="AH39" t="s">
-        <v>136</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301117</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>19.99</v>
@@ -4078,7 +4762,7 @@
         <v>50351.32</v>
       </c>
       <c r="J40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4119,8 +4803,23 @@
       <c r="W40">
         <v>4.07</v>
       </c>
+      <c r="X40">
+        <v>19.99</v>
+      </c>
+      <c r="Y40">
+        <v>42.86</v>
+      </c>
+      <c r="Z40">
+        <v>19.99</v>
+      </c>
       <c r="AC40" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4128,22 +4827,25 @@
       <c r="AG40">
         <v>10.40667247772217</v>
       </c>
-      <c r="AH40" t="s">
-        <v>137</v>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301123</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>6.54</v>
@@ -4161,7 +4863,7 @@
         <v>37828.16</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4202,8 +4904,23 @@
       <c r="W41">
         <v>0.44</v>
       </c>
+      <c r="X41">
+        <v>-3.74</v>
+      </c>
+      <c r="Y41">
+        <v>32.9</v>
+      </c>
+      <c r="Z41">
+        <v>0.92</v>
+      </c>
       <c r="AC41" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4211,22 +4928,25 @@
       <c r="AG41">
         <v>2.678564071655273</v>
       </c>
-      <c r="AH41" t="s">
-        <v>137</v>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301161</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>4.33</v>
@@ -4244,7 +4964,7 @@
         <v>35316.75</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4285,8 +5005,23 @@
       <c r="W42">
         <v>1.37</v>
       </c>
+      <c r="X42">
+        <v>7.5</v>
+      </c>
+      <c r="Y42">
+        <v>38.58</v>
+      </c>
+      <c r="Z42">
+        <v>13.54</v>
+      </c>
       <c r="AC42" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4294,22 +5029,25 @@
       <c r="AG42">
         <v>1.025917768478394</v>
       </c>
-      <c r="AH42" t="s">
-        <v>136</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301200</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>2.32</v>
@@ -4327,7 +5065,7 @@
         <v>33764.51</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -4368,8 +5106,23 @@
       <c r="W43">
         <v>0.54</v>
       </c>
+      <c r="X43">
+        <v>-0.19</v>
+      </c>
+      <c r="Y43">
+        <v>88.98</v>
+      </c>
+      <c r="Z43">
+        <v>4.14</v>
+      </c>
       <c r="AC43" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4377,22 +5130,25 @@
       <c r="AG43">
         <v>3.559243679046631</v>
       </c>
-      <c r="AH43" t="s">
-        <v>136</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301213</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.4</v>
@@ -4410,7 +5166,7 @@
         <v>23210.59</v>
       </c>
       <c r="J44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4451,8 +5207,23 @@
       <c r="W44">
         <v>-0.28</v>
       </c>
+      <c r="X44">
+        <v>-7.35</v>
+      </c>
+      <c r="Y44">
+        <v>75.5</v>
+      </c>
+      <c r="Z44">
+        <v>2.03</v>
+      </c>
       <c r="AC44" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4460,22 +5231,25 @@
       <c r="AG44">
         <v>2.483229875564575</v>
       </c>
-      <c r="AH44" t="s">
-        <v>136</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301251</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>1.92</v>
@@ -4493,7 +5267,7 @@
         <v>20934.87</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4534,8 +5308,23 @@
       <c r="W45">
         <v>-0.35</v>
       </c>
+      <c r="X45">
+        <v>-0.04</v>
+      </c>
+      <c r="Y45">
+        <v>50.77</v>
+      </c>
+      <c r="Z45">
+        <v>8.550000000000001</v>
+      </c>
       <c r="AC45" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4543,22 +5332,25 @@
       <c r="AG45">
         <v>0.6564884185791016</v>
       </c>
-      <c r="AH45" t="s">
-        <v>136</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301357</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>13.39</v>
@@ -4576,7 +5368,7 @@
         <v>92746.02</v>
       </c>
       <c r="J46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K46">
         <v>7</v>
@@ -4617,8 +5409,23 @@
       <c r="W46">
         <v>-0.53</v>
       </c>
+      <c r="X46">
+        <v>1.32</v>
+      </c>
+      <c r="Y46">
+        <v>177.68</v>
+      </c>
+      <c r="Z46">
+        <v>19.09</v>
+      </c>
       <c r="AC46" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4626,22 +5433,25 @@
       <c r="AG46">
         <v>6.554727554321289</v>
       </c>
-      <c r="AH46" t="s">
-        <v>136</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301389</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.62</v>
@@ -4659,7 +5469,7 @@
         <v>52834.41</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K47">
         <v>22</v>
@@ -4700,8 +5510,23 @@
       <c r="W47">
         <v>0.58</v>
       </c>
+      <c r="X47">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>54.99</v>
+      </c>
+      <c r="Z47">
+        <v>3.31</v>
+      </c>
       <c r="AC47" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4709,22 +5534,25 @@
       <c r="AG47">
         <v>-0.03021010383963585</v>
       </c>
-      <c r="AH47" t="s">
-        <v>136</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301392</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>1.76</v>
@@ -4742,7 +5570,7 @@
         <v>11597.04</v>
       </c>
       <c r="J48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -4783,8 +5611,23 @@
       <c r="W48">
         <v>0.04</v>
       </c>
+      <c r="X48">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>184.69</v>
+      </c>
+      <c r="Z48">
+        <v>13.02</v>
+      </c>
       <c r="AC48" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4792,22 +5635,25 @@
       <c r="AG48">
         <v>2.208765745162964</v>
       </c>
-      <c r="AH48" t="s">
-        <v>136</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301489</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>7.42</v>
@@ -4825,7 +5671,7 @@
         <v>55137.14</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -4866,8 +5712,23 @@
       <c r="W49">
         <v>0.42</v>
       </c>
+      <c r="X49">
+        <v>-8.58</v>
+      </c>
+      <c r="Y49">
+        <v>136.89</v>
+      </c>
+      <c r="Z49">
+        <v>-0.58</v>
+      </c>
       <c r="AC49" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4875,22 +5736,25 @@
       <c r="AG49">
         <v>3.394197463989258</v>
       </c>
-      <c r="AH49" t="s">
-        <v>136</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301511</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>0.5</v>
@@ -4908,7 +5772,7 @@
         <v>40987.66</v>
       </c>
       <c r="J50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K50">
         <v>32</v>
@@ -4949,8 +5813,23 @@
       <c r="W50">
         <v>0.04</v>
       </c>
+      <c r="X50">
+        <v>-2.23</v>
+      </c>
+      <c r="Y50">
+        <v>34.47</v>
+      </c>
+      <c r="Z50">
+        <v>0.85</v>
+      </c>
       <c r="AC50" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4958,22 +5837,25 @@
       <c r="AG50">
         <v>2.086724996566772</v>
       </c>
-      <c r="AH50" t="s">
-        <v>136</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688039</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-2.87</v>
@@ -4991,7 +5873,7 @@
         <v>14401.77</v>
       </c>
       <c r="J51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5032,8 +5914,23 @@
       <c r="W51">
         <v>-0.03</v>
       </c>
+      <c r="X51">
+        <v>1.06</v>
+      </c>
+      <c r="Y51">
+        <v>63.6</v>
+      </c>
+      <c r="Z51">
+        <v>34.18</v>
+      </c>
       <c r="AC51" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5041,22 +5938,25 @@
       <c r="AG51">
         <v>3.218069076538086</v>
       </c>
-      <c r="AH51" t="s">
-        <v>136</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688048</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>2.11</v>
@@ -5074,7 +5974,7 @@
         <v>22098.87</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5115,8 +6015,23 @@
       <c r="W52">
         <v>0.4</v>
       </c>
+      <c r="X52">
+        <v>-2.89</v>
+      </c>
+      <c r="Y52">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="Z52">
+        <v>3.49</v>
+      </c>
       <c r="AC52" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5124,22 +6039,25 @@
       <c r="AG52">
         <v>5.232283115386963</v>
       </c>
-      <c r="AH52" t="s">
-        <v>137</v>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688110</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>2.17</v>
@@ -5157,7 +6075,7 @@
         <v>113109.04</v>
       </c>
       <c r="J53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K53">
         <v>7</v>
@@ -5198,8 +6116,23 @@
       <c r="W53">
         <v>-0.15</v>
       </c>
+      <c r="X53">
+        <v>20</v>
+      </c>
+      <c r="Y53">
+        <v>73.2</v>
+      </c>
+      <c r="Z53">
+        <v>17.7</v>
+      </c>
       <c r="AC53" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5207,22 +6140,25 @@
       <c r="AG53">
         <v>4.738275527954102</v>
       </c>
-      <c r="AH53" t="s">
-        <v>136</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688189</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>2.95</v>
@@ -5240,7 +6176,7 @@
         <v>15989.15</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5281,8 +6217,23 @@
       <c r="W54">
         <v>0.29</v>
       </c>
+      <c r="X54">
+        <v>-5.23</v>
+      </c>
+      <c r="Y54">
+        <v>15.42</v>
+      </c>
+      <c r="Z54">
+        <v>-5.86</v>
+      </c>
       <c r="AC54" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5290,22 +6241,25 @@
       <c r="AG54">
         <v>3.096435308456421</v>
       </c>
-      <c r="AH54" t="s">
-        <v>136</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688258</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>0.25</v>
@@ -5323,7 +6277,7 @@
         <v>17976.02</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5364,8 +6318,23 @@
       <c r="W55">
         <v>0.1</v>
       </c>
+      <c r="X55">
+        <v>-2.16</v>
+      </c>
+      <c r="Y55">
+        <v>77</v>
+      </c>
+      <c r="Z55">
+        <v>8.630000000000001</v>
+      </c>
       <c r="AC55" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5373,22 +6342,25 @@
       <c r="AG55">
         <v>6.460033416748047</v>
       </c>
-      <c r="AH55" t="s">
-        <v>136</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688507</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>5.18</v>
@@ -5406,7 +6378,7 @@
         <v>25512.24</v>
       </c>
       <c r="J56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5447,8 +6419,23 @@
       <c r="W56">
         <v>0.49</v>
       </c>
+      <c r="X56">
+        <v>0.35</v>
+      </c>
+      <c r="Y56">
+        <v>120</v>
+      </c>
+      <c r="Z56">
+        <v>13.64</v>
+      </c>
       <c r="AC56" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5456,22 +6443,25 @@
       <c r="AG56">
         <v>4.025215625762939</v>
       </c>
-      <c r="AH56" t="s">
-        <v>137</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688556</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>3.7</v>
@@ -5489,7 +6479,7 @@
         <v>44463.21</v>
       </c>
       <c r="J57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K57">
         <v>8</v>
@@ -5530,8 +6520,23 @@
       <c r="W57">
         <v>-0.15</v>
       </c>
+      <c r="X57">
+        <v>-1.96</v>
+      </c>
+      <c r="Y57">
+        <v>12.65</v>
+      </c>
+      <c r="Z57">
+        <v>7.48</v>
+      </c>
       <c r="AC57" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -5539,22 +6544,25 @@
       <c r="AG57">
         <v>2.851726293563843</v>
       </c>
-      <c r="AH57" t="s">
-        <v>136</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688621</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.52</v>
@@ -5572,7 +6580,7 @@
         <v>8235.9</v>
       </c>
       <c r="J58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -5613,8 +6621,23 @@
       <c r="W58">
         <v>-0.16</v>
       </c>
+      <c r="X58">
+        <v>-1.09</v>
+      </c>
+      <c r="Y58">
+        <v>71</v>
+      </c>
+      <c r="Z58">
+        <v>12.08</v>
+      </c>
       <c r="AC58" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5622,22 +6645,25 @@
       <c r="AG58">
         <v>8.236414909362793</v>
       </c>
-      <c r="AH58" t="s">
-        <v>136</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688668</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>3.02</v>
@@ -5655,7 +6681,7 @@
         <v>24173.21</v>
       </c>
       <c r="J59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K59">
         <v>15</v>
@@ -5696,8 +6722,23 @@
       <c r="W59">
         <v>0.21</v>
       </c>
+      <c r="X59">
+        <v>-2.83</v>
+      </c>
+      <c r="Y59">
+        <v>94.98</v>
+      </c>
+      <c r="Z59">
+        <v>-0.64</v>
+      </c>
       <c r="AC59" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5705,22 +6746,25 @@
       <c r="AG59">
         <v>2.18993091583252</v>
       </c>
-      <c r="AH59" t="s">
-        <v>136</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688788</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0.12</v>
@@ -5738,7 +6782,7 @@
         <v>52475.52</v>
       </c>
       <c r="J60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5779,8 +6823,23 @@
       <c r="W60">
         <v>-0.12</v>
       </c>
+      <c r="X60">
+        <v>-7.84</v>
+      </c>
+      <c r="Y60">
+        <v>78.19</v>
+      </c>
+      <c r="Z60">
+        <v>-0.13</v>
+      </c>
       <c r="AC60" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -5788,22 +6847,25 @@
       <c r="AG60">
         <v>10.65334796905518</v>
       </c>
-      <c r="AH60" t="s">
-        <v>136</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688800</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>0.67</v>
@@ -5821,7 +6883,7 @@
         <v>31140.18</v>
       </c>
       <c r="J61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5862,8 +6924,23 @@
       <c r="W61">
         <v>0.18</v>
       </c>
+      <c r="X61">
+        <v>4.94</v>
+      </c>
+      <c r="Y61">
+        <v>72.5</v>
+      </c>
+      <c r="Z61">
+        <v>6.9</v>
+      </c>
       <c r="AC61" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5871,8 +6948,11 @@
       <c r="AG61">
         <v>4.478568553924561</v>
       </c>
-      <c r="AH61" t="s">
-        <v>136</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
